--- a/EXCEL FILES/RiskBearingCapacityCalc.xlsx
+++ b/EXCEL FILES/RiskBearingCapacityCalc.xlsx
@@ -122,10 +122,7 @@
     <t>Position</t>
   </si>
   <si>
-    <t>PositionDetail</t>
-  </si>
-  <si>
-    <t>Amount</t>
+    <t>Position Detail</t>
   </si>
   <si>
     <t>Dotation Capital</t>
@@ -686,12 +683,14 @@
     <row r="5">
       <c r="C5" s="4">
         <f>Risk_Potential/Risk_Coverage_Potential</f>
-        <v>0.42229105612642354</v>
+        <v>0.53142214255037068</v>
       </c>
       <c r="D5" s="5">
-        <v>269570</v>
+        <f>F8</f>
+        <v>214212</v>
       </c>
       <c r="E5" s="6">
+        <f>F12</f>
         <v>113837</v>
       </c>
     </row>
@@ -736,7 +735,8 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9">
-        <v>269570</v>
+        <f>SUM(F9:F11)</f>
+        <v>214212</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="str">
@@ -759,7 +759,8 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9">
-        <v>270795</v>
+        <f t="shared" ref="F9:F11" si="1">SUMIF(INDEX(AdditionalInformation,,2),$C9,$D$28:$D$34)</f>
+        <v>215437</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="str">
@@ -782,6 +783,7 @@
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9">
+        <f t="shared" si="1"/>
         <v>-1003</v>
       </c>
       <c r="G10" s="10"/>
@@ -805,6 +807,7 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="9">
+        <f t="shared" si="1"/>
         <v>-222</v>
       </c>
       <c r="G11" s="10"/>
@@ -828,6 +831,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9">
+        <f>F13+F19+F23</f>
         <v>113837</v>
       </c>
       <c r="G12" s="10">
@@ -835,7 +839,7 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0.42229105612642354</v>
+        <v>0.53142214255037068</v>
       </c>
     </row>
     <row r="13">
@@ -853,14 +857,15 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="9">
+        <f>F14+F18</f>
         <v>99213</v>
       </c>
       <c r="G13" s="10">
-        <v>0.75</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0.36804169603442521</v>
+        <v>0.46315332474371185</v>
       </c>
     </row>
     <row r="14">
@@ -878,6 +883,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9">
+        <f>SUM(F15:F17)</f>
         <v>97055</v>
       </c>
       <c r="G14" s="10"/>
@@ -1001,6 +1007,7 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="9">
+        <f>SUM(F20:F22)</f>
         <v>10672</v>
       </c>
       <c r="G19" s="10">
@@ -1008,7 +1015,7 @@
       </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0.039588975034313904</v>
+        <v>0.049819804679476408</v>
       </c>
     </row>
     <row r="20">
@@ -1035,7 +1042,7 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0.022669436509997403</v>
+        <v>0.028527813567867346</v>
       </c>
     </row>
     <row r="21">
@@ -1087,7 +1094,7 @@
       </c>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0.011062061802129318</v>
+        <v>0.013920788751330458</v>
       </c>
     </row>
     <row r="23">
@@ -1108,11 +1115,11 @@
         <v>3952</v>
       </c>
       <c r="G23" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0.014660385057684461</v>
+        <v>0.018449013127182418</v>
       </c>
     </row>
     <row r="24">
@@ -1142,7 +1149,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1153,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="9">
         <v>215383</v>
@@ -1167,10 +1174,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="9">
-        <v>53912</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30">
@@ -1181,10 +1188,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="9">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1195,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="9">
         <v>972</v>
@@ -1209,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="9">
         <v>-1975</v>
@@ -1223,7 +1230,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
@@ -1237,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="9">
         <v>-222</v>
@@ -1315,7 +1322,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2">
         <v>45199</v>
@@ -1329,13 +1336,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -1361,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9">
@@ -1376,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9">
@@ -1391,7 +1398,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9">
@@ -1403,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>12</v>
@@ -1451,7 +1458,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
@@ -1463,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>12</v>
@@ -1481,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8">
         <v>14.23</v>
@@ -1498,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8">
         <v>10.51</v>
@@ -1515,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="8">
         <v>12.1</v>
